--- a/meta/test/01_GetTableSample2.xlsx
+++ b/meta/test/01_GetTableSample2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestAutotest/meta/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92D7FDA-D02C-6C4D-A86D-2DEAD7E2662C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97413485-BFF6-6147-BB1F-A98B2F1F797B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3700" yWindow="1300" windowWidth="26200" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="131">
   <si>
     <t>2.定義書様式に記入された情報から、メタファイルをXMLファイルに変換する処理の定義に相当するJavaソースコードが自動生成されます。</t>
   </si>
@@ -704,6 +704,14 @@
       <t xml:space="preserve">メイショウ </t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>myLong</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>myArray[]</t>
+    <phoneticPr fontId="12"/>
   </si>
 </sst>
 </file>
@@ -2171,7 +2179,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2636,6 +2644,120 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="89" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="82" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="90" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="78" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="79" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="80" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="81" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="92" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2648,137 +2770,20 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="89" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="82" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="90" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="78" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="79" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="80" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="81" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="92" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -2811,190 +2816,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{797A1E41-ECC6-494E-B067-72DD259E66E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429500" y="3263900"/>
-          <a:ext cx="3232150" cy="1289050"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -60065"/>
-            <a:gd name="adj2" fmla="val -23670"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>#</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>の打ち方が正しくないみたいです。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>左記の状態では、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>auth_kind</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>しか出力されません。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>codeMasters</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>の配列が</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>つしかでない）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>（ケース</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>も同じ状況</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3541,20 +3362,20 @@
       <c r="J19" s="140"/>
       <c r="K19" s="140"/>
       <c r="L19" s="141"/>
-      <c r="M19" s="168" t="s">
+      <c r="M19" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="169"/>
-      <c r="O19" s="169"/>
-      <c r="P19" s="169"/>
-      <c r="Q19" s="169"/>
-      <c r="R19" s="168" t="s">
+      <c r="N19" s="207"/>
+      <c r="O19" s="207"/>
+      <c r="P19" s="207"/>
+      <c r="Q19" s="207"/>
+      <c r="R19" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="S19" s="169"/>
-      <c r="T19" s="169"/>
-      <c r="U19" s="169"/>
-      <c r="V19" s="169"/>
+      <c r="S19" s="207"/>
+      <c r="T19" s="207"/>
+      <c r="U19" s="207"/>
+      <c r="V19" s="207"/>
       <c r="W19" s="142"/>
     </row>
     <row r="20" spans="1:23" ht="12.75" customHeight="1">
@@ -3572,20 +3393,20 @@
       <c r="J20" s="117"/>
       <c r="K20" s="117"/>
       <c r="L20" s="143"/>
-      <c r="M20" s="166" t="s">
+      <c r="M20" s="204" t="s">
         <v>67</v>
       </c>
-      <c r="N20" s="167"/>
-      <c r="O20" s="167"/>
-      <c r="P20" s="167"/>
-      <c r="Q20" s="167"/>
-      <c r="R20" s="166" t="s">
+      <c r="N20" s="205"/>
+      <c r="O20" s="205"/>
+      <c r="P20" s="205"/>
+      <c r="Q20" s="205"/>
+      <c r="R20" s="204" t="s">
         <v>67</v>
       </c>
-      <c r="S20" s="167"/>
-      <c r="T20" s="167"/>
-      <c r="U20" s="167"/>
-      <c r="V20" s="167"/>
+      <c r="S20" s="205"/>
+      <c r="T20" s="205"/>
+      <c r="U20" s="205"/>
+      <c r="V20" s="205"/>
       <c r="W20" s="117"/>
     </row>
     <row r="21" spans="1:23" ht="23" customHeight="1">
@@ -6023,10 +5844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2255131-13B1-484A-9393-AFEFC966B3D8}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -6039,15 +5860,15 @@
     <col min="13" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="78" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="78"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+    <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -6058,7 +5879,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -6071,7 +5892,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -6084,7 +5905,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -6096,9 +5917,8 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -6111,16 +5931,16 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="78"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="78"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="78"/>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1">
+    <row r="11" spans="1:9" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -6138,12 +5958,18 @@
       <c r="G11" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="176" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A12" s="210" t="s">
+      <c r="H11" s="12">
+        <v>4</v>
+      </c>
+      <c r="I11" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="169" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A12" s="200" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="211" t="s">
+      <c r="B12" s="201" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="83" t="s">
@@ -6153,620 +5979,681 @@
         <f>"Input"&amp;D11</f>
         <v>Input1</v>
       </c>
-      <c r="E12" s="212" t="str">
+      <c r="E12" s="202" t="str">
         <f>"Expect"&amp;E11</f>
         <v>Expect1</v>
       </c>
       <c r="F12" s="79" t="str">
-        <f t="shared" ref="F12:G12" si="0">"Expect"&amp;F11</f>
+        <f t="shared" ref="F12:I12" si="0">"Expect"&amp;F11</f>
         <v>Expect2</v>
       </c>
-      <c r="G12" s="213" t="str">
+      <c r="G12" s="203" t="str">
         <f t="shared" si="0"/>
         <v>Expect3</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="176" customFormat="1">
-      <c r="A13" s="171">
+      <c r="H12" s="203" t="str">
+        <f t="shared" ref="H12:I12" si="1">"Expect"&amp;H11</f>
+        <v>Expect4</v>
+      </c>
+      <c r="I12" s="203" t="str">
+        <f t="shared" si="1"/>
+        <v>Expect5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="169" customFormat="1">
+      <c r="A13" s="166">
         <v>1</v>
       </c>
-      <c r="B13" s="172" t="s">
+      <c r="B13" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="173"/>
+      <c r="C13" s="168"/>
       <c r="D13" s="165" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="174" t="s">
+      <c r="E13" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="170"/>
-      <c r="G13" s="175"/>
-    </row>
-    <row r="14" spans="1:8" s="176" customFormat="1">
-      <c r="A14" s="171">
-        <f t="shared" ref="A14:A44" si="1">A13+1</f>
+      <c r="F13" s="209"/>
+      <c r="G13" s="210"/>
+      <c r="H13" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="169" customFormat="1">
+      <c r="A14" s="166">
+        <f t="shared" ref="A14:A44" si="2">A13+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178" t="s">
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="171" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="179" t="s">
+      <c r="F14" s="211" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="180"/>
-    </row>
-    <row r="15" spans="1:8" s="176" customFormat="1" ht="15" thickBot="1">
-      <c r="A15" s="171">
-        <f t="shared" si="1"/>
+      <c r="G14" s="212"/>
+    </row>
+    <row r="15" spans="1:9" s="169" customFormat="1" ht="15" thickBot="1">
+      <c r="A15" s="166">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B15" s="172" t="s">
+      <c r="B15" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="181"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="172"/>
       <c r="F15" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="182" t="s">
+      <c r="G15" s="173" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="176" customFormat="1">
-      <c r="A16" s="171">
-        <f t="shared" si="1"/>
+    <row r="16" spans="1:9" s="169" customFormat="1">
+      <c r="A16" s="166">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B16" s="183" t="s">
+      <c r="B16" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="185" t="s">
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="186" t="s">
+      <c r="F16" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="187" t="s">
+      <c r="G16" s="178" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="176" customFormat="1">
-      <c r="A17" s="171">
-        <f t="shared" si="1"/>
+      <c r="H16" s="178" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="178" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="169" customFormat="1">
+      <c r="A17" s="166">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B17" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="173">
+      <c r="C17" s="168">
         <v>1</v>
       </c>
-      <c r="D17" s="188" t="s">
+      <c r="D17" s="179" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="189" t="s">
+      <c r="E17" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="190" t="s">
+      <c r="F17" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="191" t="s">
+      <c r="G17" s="182" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="176" customFormat="1">
-      <c r="A18" s="171">
-        <f t="shared" si="1"/>
+      <c r="H17" s="169">
+        <v>101</v>
+      </c>
+      <c r="I17" s="169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="169" customFormat="1">
+      <c r="A18" s="166">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="177"/>
+      <c r="C18" s="170"/>
       <c r="D18" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="192"/>
-      <c r="F18" s="190" t="s">
+      <c r="E18" s="183"/>
+      <c r="F18" s="181" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="193" t="s">
+      <c r="G18" s="184" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="176" customFormat="1">
-      <c r="A19" s="171">
-        <f t="shared" si="1"/>
+      <c r="I18" s="169">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="169" customFormat="1">
+      <c r="A19" s="166">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="177"/>
+      <c r="C19" s="170"/>
       <c r="D19" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="194"/>
-      <c r="F19" s="190" t="s">
+      <c r="E19" s="185"/>
+      <c r="F19" s="181" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="191" t="s">
+      <c r="G19" s="182" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="176" customFormat="1">
-      <c r="A20" s="171">
-        <f t="shared" si="1"/>
+      <c r="I19" s="169">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="169" customFormat="1">
+      <c r="A20" s="166">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B20" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="177"/>
+      <c r="C20" s="170"/>
       <c r="D20" s="81"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="190" t="s">
+      <c r="E20" s="185"/>
+      <c r="F20" s="181" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="191"/>
-    </row>
-    <row r="21" spans="1:8" s="176" customFormat="1">
-      <c r="A21" s="171">
-        <f t="shared" si="1"/>
+      <c r="G20" s="182"/>
+      <c r="I20" s="78" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="169" customFormat="1">
+      <c r="A21" s="166">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B21" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="177"/>
+      <c r="C21" s="170"/>
       <c r="D21" s="81"/>
-      <c r="E21" s="189" t="s">
+      <c r="E21" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="195" t="s">
+      <c r="F21" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="193" t="s">
+      <c r="G21" s="184" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="176" customFormat="1">
-      <c r="A22" s="171">
-        <f t="shared" si="1"/>
+    <row r="22" spans="1:9" s="169" customFormat="1">
+      <c r="A22" s="166">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B22" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="177"/>
+      <c r="C22" s="170"/>
       <c r="D22" s="81"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="195" t="s">
+      <c r="E22" s="185"/>
+      <c r="F22" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="193" t="s">
+      <c r="G22" s="184" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="176" customFormat="1">
-      <c r="A23" s="171">
-        <f t="shared" si="1"/>
+    <row r="23" spans="1:9" s="169" customFormat="1">
+      <c r="A23" s="166">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B23" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="177"/>
+      <c r="C23" s="170"/>
       <c r="D23" s="81"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="195" t="s">
+      <c r="E23" s="185"/>
+      <c r="F23" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="193" t="s">
+      <c r="G23" s="184" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="176" customFormat="1" ht="15" thickBot="1">
-      <c r="A24" s="171">
-        <f t="shared" si="1"/>
+    <row r="24" spans="1:9" s="169" customFormat="1" ht="15" thickBot="1">
+      <c r="A24" s="166">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B24" s="172" t="s">
+      <c r="B24" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="177"/>
+      <c r="C24" s="170"/>
       <c r="D24" s="81"/>
-      <c r="E24" s="194" t="s">
+      <c r="E24" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="196" t="s">
+      <c r="F24" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="197"/>
-    </row>
-    <row r="25" spans="1:8" s="176" customFormat="1">
-      <c r="A25" s="171">
-        <f t="shared" si="1"/>
+      <c r="G24" s="188"/>
+    </row>
+    <row r="25" spans="1:9" s="169" customFormat="1">
+      <c r="A25" s="166">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B25" s="183" t="s">
+      <c r="B25" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="184"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="185" t="s">
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="176" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="186" t="s">
+      <c r="F25" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="187" t="s">
+      <c r="G25" s="178" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" s="176" customFormat="1">
-      <c r="A26" s="171">
-        <f t="shared" si="1"/>
+      <c r="H25" s="178" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="178" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="169" customFormat="1">
+      <c r="A26" s="166">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B26" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="173">
+      <c r="C26" s="168">
         <v>2</v>
       </c>
-      <c r="D26" s="188" t="s">
+      <c r="D26" s="179" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="198"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="191"/>
-    </row>
-    <row r="27" spans="1:8" s="176" customFormat="1" ht="15" thickBot="1">
-      <c r="A27" s="171">
-        <f t="shared" si="1"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="182"/>
+    </row>
+    <row r="27" spans="1:9" s="169" customFormat="1" ht="15" thickBot="1">
+      <c r="A27" s="166">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B27" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="177"/>
+      <c r="C27" s="170"/>
       <c r="D27" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="200"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="193"/>
-    </row>
-    <row r="28" spans="1:8" s="176" customFormat="1">
-      <c r="A28" s="171">
-        <f t="shared" si="1"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="184"/>
+    </row>
+    <row r="28" spans="1:9" s="169" customFormat="1">
+      <c r="A28" s="166">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B28" s="183" t="s">
+      <c r="B28" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="185" t="s">
+      <c r="C28" s="175"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="186" t="s">
+      <c r="F28" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="187" t="s">
+      <c r="G28" s="178" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" s="176" customFormat="1">
-      <c r="A29" s="171">
-        <f t="shared" si="1"/>
+      <c r="H28" s="178" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="178" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="169" customFormat="1">
+      <c r="A29" s="166">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B29" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="173">
+      <c r="C29" s="168">
         <v>3</v>
       </c>
-      <c r="D29" s="188" t="s">
+      <c r="D29" s="179" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="201" t="s">
+      <c r="E29" s="192" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="190" t="s">
+      <c r="F29" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="193" t="s">
+      <c r="G29" s="184" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" s="176" customFormat="1">
-      <c r="A30" s="171">
-        <f t="shared" si="1"/>
+      <c r="H29" s="169">
+        <v>103</v>
+      </c>
+      <c r="I29" s="169">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="169" customFormat="1">
+      <c r="A30" s="166">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B30" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="177"/>
+      <c r="C30" s="170"/>
       <c r="D30" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="192"/>
-      <c r="F30" s="190" t="s">
+      <c r="E30" s="183"/>
+      <c r="F30" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="193" t="s">
+      <c r="G30" s="184" t="s">
         <v>108</v>
       </c>
-      <c r="H30" s="202"/>
-    </row>
-    <row r="31" spans="1:8" s="176" customFormat="1">
-      <c r="A31" s="171">
-        <f t="shared" si="1"/>
+      <c r="I30" s="169">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="169" customFormat="1">
+      <c r="A31" s="166">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B31" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="177"/>
+      <c r="C31" s="170"/>
       <c r="D31" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="192"/>
-      <c r="F31" s="190" t="s">
+      <c r="E31" s="183"/>
+      <c r="F31" s="181" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="191" t="s">
+      <c r="G31" s="182" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" s="176" customFormat="1">
-      <c r="A32" s="171">
-        <f t="shared" si="1"/>
+      <c r="I31" s="169">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="169" customFormat="1">
+      <c r="A32" s="166">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B32" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="177"/>
+      <c r="C32" s="170"/>
       <c r="D32" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="192"/>
-      <c r="F32" s="190" t="s">
+      <c r="E32" s="183"/>
+      <c r="F32" s="181" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="191" t="s">
+      <c r="G32" s="182" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" s="176" customFormat="1">
-      <c r="A33" s="171">
-        <f t="shared" si="1"/>
+      <c r="I32" s="78" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="169" customFormat="1">
+      <c r="A33" s="166">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B33" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="177"/>
+      <c r="C33" s="170"/>
       <c r="D33" s="81"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="195" t="s">
+      <c r="E33" s="193"/>
+      <c r="F33" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="193"/>
-    </row>
-    <row r="34" spans="1:7" s="176" customFormat="1">
-      <c r="A34" s="171">
-        <f t="shared" si="1"/>
+      <c r="G33" s="184"/>
+    </row>
+    <row r="34" spans="1:7" s="169" customFormat="1">
+      <c r="A34" s="166">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B34" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="177"/>
+      <c r="C34" s="170"/>
       <c r="D34" s="81"/>
-      <c r="E34" s="189" t="s">
+      <c r="E34" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="190" t="s">
+      <c r="F34" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="191" t="s">
+      <c r="G34" s="182" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="176" customFormat="1">
-      <c r="A35" s="171">
-        <f t="shared" si="1"/>
+    <row r="35" spans="1:7" s="169" customFormat="1">
+      <c r="A35" s="166">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B35" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="177"/>
+      <c r="C35" s="170"/>
       <c r="D35" s="81"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="190" t="s">
+      <c r="E35" s="185"/>
+      <c r="F35" s="181" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="191" t="s">
+      <c r="G35" s="182" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="176" customFormat="1">
-      <c r="A36" s="171">
-        <f t="shared" si="1"/>
+    <row r="36" spans="1:7" s="169" customFormat="1">
+      <c r="A36" s="166">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B36" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="177"/>
+      <c r="C36" s="170"/>
       <c r="D36" s="81"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="190" t="s">
+      <c r="E36" s="185"/>
+      <c r="F36" s="181" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="191" t="s">
+      <c r="G36" s="182" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="176" customFormat="1">
-      <c r="A37" s="171">
-        <f t="shared" si="1"/>
+    <row r="37" spans="1:7" s="169" customFormat="1">
+      <c r="A37" s="166">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B37" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="177"/>
+      <c r="C37" s="170"/>
       <c r="D37" s="81"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="190" t="s">
+      <c r="E37" s="185"/>
+      <c r="F37" s="181" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="191"/>
-    </row>
-    <row r="38" spans="1:7" s="176" customFormat="1">
-      <c r="A38" s="171">
-        <f t="shared" si="1"/>
+      <c r="G37" s="182"/>
+    </row>
+    <row r="38" spans="1:7" s="169" customFormat="1">
+      <c r="A38" s="166">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B38" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="177"/>
+      <c r="C38" s="170"/>
       <c r="D38" s="81"/>
-      <c r="E38" s="201" t="s">
+      <c r="E38" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="195" t="s">
+      <c r="F38" s="186" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="193" t="s">
+      <c r="G38" s="184" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="176" customFormat="1">
-      <c r="A39" s="171">
-        <f t="shared" si="1"/>
+    <row r="39" spans="1:7" s="169" customFormat="1">
+      <c r="A39" s="166">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B39" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="177"/>
+      <c r="C39" s="170"/>
       <c r="D39" s="81"/>
-      <c r="E39" s="194" t="s">
+      <c r="E39" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="195" t="s">
+      <c r="F39" s="186" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="193" t="s">
+      <c r="G39" s="184" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="176" customFormat="1">
-      <c r="A40" s="171">
-        <f t="shared" si="1"/>
+    <row r="40" spans="1:7" s="169" customFormat="1">
+      <c r="A40" s="166">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B40" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="177"/>
+      <c r="C40" s="170"/>
       <c r="D40" s="81"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="195" t="s">
+      <c r="E40" s="185"/>
+      <c r="F40" s="186" t="s">
         <v>116</v>
       </c>
-      <c r="G40" s="193" t="s">
+      <c r="G40" s="184" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="176" customFormat="1">
-      <c r="A41" s="171">
-        <f t="shared" si="1"/>
+    <row r="41" spans="1:7" s="169" customFormat="1">
+      <c r="A41" s="166">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B41" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="177"/>
+      <c r="C41" s="170"/>
       <c r="D41" s="81"/>
-      <c r="E41" s="194"/>
-      <c r="F41" s="204" t="s">
+      <c r="E41" s="185"/>
+      <c r="F41" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="G41" s="193" t="s">
+      <c r="G41" s="184" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="176" customFormat="1">
-      <c r="A42" s="171">
-        <f t="shared" si="1"/>
+    <row r="42" spans="1:7" s="169" customFormat="1">
+      <c r="A42" s="166">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B42" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="177"/>
+      <c r="C42" s="170"/>
       <c r="D42" s="81"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="205" t="s">
+      <c r="E42" s="185"/>
+      <c r="F42" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="G42" s="193" t="s">
+      <c r="G42" s="184" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="176" customFormat="1">
-      <c r="A43" s="171">
-        <f t="shared" si="1"/>
+    <row r="43" spans="1:7" s="169" customFormat="1">
+      <c r="A43" s="166">
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B43" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="177"/>
+      <c r="C43" s="170"/>
       <c r="D43" s="81"/>
-      <c r="E43" s="192"/>
-      <c r="F43" s="205" t="s">
+      <c r="E43" s="183"/>
+      <c r="F43" s="195" t="s">
         <v>121</v>
       </c>
-      <c r="G43" s="193" t="s">
+      <c r="G43" s="184" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="176" customFormat="1" ht="15" thickBot="1">
-      <c r="A44" s="171">
-        <f t="shared" si="1"/>
+    <row r="44" spans="1:7" s="169" customFormat="1" ht="15" thickBot="1">
+      <c r="A44" s="166">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B44" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="206"/>
-      <c r="D44" s="206"/>
-      <c r="E44" s="207"/>
-      <c r="F44" s="208" t="s">
+      <c r="C44" s="196"/>
+      <c r="D44" s="196"/>
+      <c r="E44" s="197"/>
+      <c r="F44" s="198" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="209"/>
+      <c r="G44" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6775,7 +6662,6 @@
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
